--- a/REGULAR/OJT/NEW DONE/ERNI, RANDY.xlsx
+++ b/REGULAR/OJT/NEW DONE/ERNI, RANDY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\LEAVE CARD\TOPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="99">
   <si>
     <t>PERIOD</t>
   </si>
@@ -319,11 +319,32 @@
   <si>
     <t>04/08,10,11,12</t>
   </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
+  </si>
+  <si>
+    <t>SL(15-0-0)</t>
+  </si>
+  <si>
+    <t>2/20-3/10/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -554,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -728,6 +749,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1177,7 +1201,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1220,7 +1244,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1284,7 +1308,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1368,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1410,7 +1434,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1473,7 +1497,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1595,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1630,7 +1654,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,7 +1719,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1762,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1813,7 +1837,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1999,7 +2023,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2065,7 +2089,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2123,7 +2147,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2213,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2245,7 +2269,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2344,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2363,7 +2387,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2429,7 +2453,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,7 +2509,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2583,7 +2607,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2646,7 +2670,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2712,7 +2736,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K325" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K367" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3090,12 +3114,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K325"/>
+  <dimension ref="A2:K367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2100" topLeftCell="A302" activePane="bottomLeft"/>
-      <selection activeCell="M6" sqref="M6"/>
-      <selection pane="bottomLeft" activeCell="A311" sqref="A311"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A345" activePane="bottomLeft"/>
+      <selection activeCell="B4" sqref="B4:C5"/>
+      <selection pane="bottomLeft" activeCell="H355" sqref="H355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3252,7 +3276,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>213.08299999999997</v>
+        <v>245.83299999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3262,7 +3286,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>348.08299999999997</v>
+        <v>381.83299999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9489,11 +9513,15 @@
       <c r="A312" s="40">
         <v>43800</v>
       </c>
-      <c r="B312" s="20"/>
+      <c r="B312" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="C312" s="13">
         <v>1.25</v>
       </c>
-      <c r="D312" s="39"/>
+      <c r="D312" s="39">
+        <v>1</v>
+      </c>
       <c r="E312" s="9"/>
       <c r="F312" s="20"/>
       <c r="G312" s="13">
@@ -9506,173 +9534,1117 @@
       <c r="K312" s="20"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A313" s="47"/>
+      <c r="A313" s="47" t="s">
+        <v>92</v>
+      </c>
       <c r="B313" s="20"/>
       <c r="C313" s="13"/>
       <c r="D313" s="39"/>
       <c r="E313" s="9"/>
       <c r="F313" s="20"/>
-      <c r="G313" s="13"/>
+      <c r="G313" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H313" s="39"/>
       <c r="I313" s="9"/>
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A314" s="40"/>
+      <c r="A314" s="60">
+        <f>EDATE(A312,1)</f>
+        <v>43831</v>
+      </c>
       <c r="B314" s="20"/>
-      <c r="C314" s="13"/>
+      <c r="C314" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D314" s="39"/>
       <c r="E314" s="9"/>
       <c r="F314" s="20"/>
-      <c r="G314" s="13"/>
+      <c r="G314" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H314" s="39"/>
       <c r="I314" s="9"/>
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A315" s="40"/>
+      <c r="A315" s="60">
+        <f t="shared" ref="A315:A359" si="0">EDATE(A314,1)</f>
+        <v>43862</v>
+      </c>
       <c r="B315" s="20"/>
-      <c r="C315" s="13"/>
+      <c r="C315" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D315" s="39"/>
       <c r="E315" s="9"/>
       <c r="F315" s="20"/>
-      <c r="G315" s="13"/>
+      <c r="G315" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H315" s="39"/>
       <c r="I315" s="9"/>
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A316" s="40"/>
+      <c r="A316" s="60">
+        <f t="shared" si="0"/>
+        <v>43891</v>
+      </c>
       <c r="B316" s="20"/>
-      <c r="C316" s="13"/>
+      <c r="C316" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D316" s="39"/>
       <c r="E316" s="9"/>
       <c r="F316" s="20"/>
-      <c r="G316" s="13"/>
+      <c r="G316" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H316" s="39"/>
       <c r="I316" s="9"/>
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A317" s="40"/>
+      <c r="A317" s="60">
+        <f t="shared" si="0"/>
+        <v>43922</v>
+      </c>
       <c r="B317" s="20"/>
-      <c r="C317" s="13"/>
+      <c r="C317" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D317" s="39"/>
       <c r="E317" s="9"/>
       <c r="F317" s="20"/>
-      <c r="G317" s="13"/>
+      <c r="G317" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H317" s="39"/>
       <c r="I317" s="9"/>
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A318" s="40"/>
+      <c r="A318" s="60">
+        <f t="shared" si="0"/>
+        <v>43952</v>
+      </c>
       <c r="B318" s="20"/>
-      <c r="C318" s="13"/>
+      <c r="C318" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D318" s="39"/>
       <c r="E318" s="9"/>
       <c r="F318" s="20"/>
-      <c r="G318" s="13"/>
+      <c r="G318" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H318" s="39"/>
       <c r="I318" s="9"/>
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" s="40"/>
+      <c r="A319" s="60">
+        <f t="shared" si="0"/>
+        <v>43983</v>
+      </c>
       <c r="B319" s="20"/>
-      <c r="C319" s="13"/>
+      <c r="C319" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D319" s="39"/>
       <c r="E319" s="9"/>
       <c r="F319" s="20"/>
-      <c r="G319" s="13"/>
+      <c r="G319" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H319" s="39"/>
       <c r="I319" s="9"/>
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A320" s="40"/>
+      <c r="A320" s="60">
+        <f t="shared" si="0"/>
+        <v>44013</v>
+      </c>
       <c r="B320" s="20"/>
-      <c r="C320" s="13"/>
+      <c r="C320" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D320" s="39"/>
       <c r="E320" s="9"/>
       <c r="F320" s="20"/>
-      <c r="G320" s="13"/>
+      <c r="G320" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H320" s="39"/>
       <c r="I320" s="9"/>
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A321" s="40"/>
+      <c r="A321" s="60">
+        <f t="shared" si="0"/>
+        <v>44044</v>
+      </c>
       <c r="B321" s="20"/>
-      <c r="C321" s="13"/>
+      <c r="C321" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D321" s="39"/>
       <c r="E321" s="9"/>
       <c r="F321" s="20"/>
-      <c r="G321" s="13"/>
+      <c r="G321" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H321" s="39"/>
       <c r="I321" s="9"/>
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A322" s="40"/>
+      <c r="A322" s="60">
+        <f t="shared" si="0"/>
+        <v>44075</v>
+      </c>
       <c r="B322" s="20"/>
-      <c r="C322" s="13"/>
+      <c r="C322" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D322" s="39"/>
       <c r="E322" s="9"/>
       <c r="F322" s="20"/>
-      <c r="G322" s="13"/>
+      <c r="G322" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H322" s="39"/>
       <c r="I322" s="9"/>
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A323" s="40"/>
+      <c r="A323" s="60">
+        <f t="shared" si="0"/>
+        <v>44105</v>
+      </c>
       <c r="B323" s="20"/>
-      <c r="C323" s="13"/>
+      <c r="C323" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D323" s="39"/>
       <c r="E323" s="9"/>
       <c r="F323" s="20"/>
-      <c r="G323" s="13"/>
+      <c r="G323" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H323" s="39"/>
       <c r="I323" s="9"/>
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A324" s="40"/>
+      <c r="A324" s="60">
+        <f t="shared" si="0"/>
+        <v>44136</v>
+      </c>
       <c r="B324" s="20"/>
-      <c r="C324" s="13"/>
+      <c r="C324" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D324" s="39"/>
       <c r="E324" s="9"/>
       <c r="F324" s="20"/>
-      <c r="G324" s="13"/>
+      <c r="G324" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H324" s="39"/>
       <c r="I324" s="9"/>
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A325" s="40"/>
-      <c r="B325" s="20"/>
-      <c r="C325" s="13"/>
-      <c r="D325" s="39"/>
+      <c r="A325" s="60">
+        <f t="shared" si="0"/>
+        <v>44166</v>
+      </c>
+      <c r="B325" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C325" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D325" s="39">
+        <v>5</v>
+      </c>
       <c r="E325" s="9"/>
       <c r="F325" s="20"/>
-      <c r="G325" s="13"/>
+      <c r="G325" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H325" s="39"/>
       <c r="I325" s="9"/>
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A326" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B326" s="20"/>
+      <c r="C326" s="13"/>
+      <c r="D326" s="39"/>
+      <c r="E326" s="9"/>
+      <c r="F326" s="20"/>
+      <c r="G326" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H326" s="39"/>
+      <c r="I326" s="9"/>
+      <c r="J326" s="11"/>
+      <c r="K326" s="20"/>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A327" s="60">
+        <f>EDATE(A325,1)</f>
+        <v>44197</v>
+      </c>
+      <c r="B327" s="20"/>
+      <c r="C327" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D327" s="39"/>
+      <c r="E327" s="9"/>
+      <c r="F327" s="20"/>
+      <c r="G327" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H327" s="39"/>
+      <c r="I327" s="9"/>
+      <c r="J327" s="11"/>
+      <c r="K327" s="20"/>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A328" s="60">
+        <f t="shared" si="0"/>
+        <v>44228</v>
+      </c>
+      <c r="B328" s="20"/>
+      <c r="C328" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D328" s="39"/>
+      <c r="E328" s="9"/>
+      <c r="F328" s="20"/>
+      <c r="G328" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H328" s="39"/>
+      <c r="I328" s="9"/>
+      <c r="J328" s="11"/>
+      <c r="K328" s="20"/>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A329" s="60">
+        <f t="shared" si="0"/>
+        <v>44256</v>
+      </c>
+      <c r="B329" s="20"/>
+      <c r="C329" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D329" s="39"/>
+      <c r="E329" s="9"/>
+      <c r="F329" s="20"/>
+      <c r="G329" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H329" s="39"/>
+      <c r="I329" s="9"/>
+      <c r="J329" s="11"/>
+      <c r="K329" s="20"/>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A330" s="60">
+        <f t="shared" si="0"/>
+        <v>44287</v>
+      </c>
+      <c r="B330" s="20"/>
+      <c r="C330" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D330" s="39"/>
+      <c r="E330" s="9"/>
+      <c r="F330" s="20"/>
+      <c r="G330" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H330" s="39"/>
+      <c r="I330" s="9"/>
+      <c r="J330" s="11"/>
+      <c r="K330" s="20"/>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A331" s="60">
+        <f t="shared" si="0"/>
+        <v>44317</v>
+      </c>
+      <c r="B331" s="20"/>
+      <c r="C331" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D331" s="39"/>
+      <c r="E331" s="9"/>
+      <c r="F331" s="20"/>
+      <c r="G331" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H331" s="39"/>
+      <c r="I331" s="9"/>
+      <c r="J331" s="11"/>
+      <c r="K331" s="20"/>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A332" s="60">
+        <f t="shared" si="0"/>
+        <v>44348</v>
+      </c>
+      <c r="B332" s="20"/>
+      <c r="C332" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D332" s="39"/>
+      <c r="E332" s="9"/>
+      <c r="F332" s="20"/>
+      <c r="G332" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H332" s="39"/>
+      <c r="I332" s="9"/>
+      <c r="J332" s="11"/>
+      <c r="K332" s="20"/>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A333" s="60">
+        <f t="shared" si="0"/>
+        <v>44378</v>
+      </c>
+      <c r="B333" s="20"/>
+      <c r="C333" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D333" s="39"/>
+      <c r="E333" s="9"/>
+      <c r="F333" s="20"/>
+      <c r="G333" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H333" s="39"/>
+      <c r="I333" s="9"/>
+      <c r="J333" s="11"/>
+      <c r="K333" s="20"/>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A334" s="60">
+        <f t="shared" si="0"/>
+        <v>44409</v>
+      </c>
+      <c r="B334" s="20"/>
+      <c r="C334" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D334" s="39"/>
+      <c r="E334" s="9"/>
+      <c r="F334" s="20"/>
+      <c r="G334" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H334" s="39"/>
+      <c r="I334" s="9"/>
+      <c r="J334" s="11"/>
+      <c r="K334" s="20"/>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A335" s="60">
+        <f t="shared" si="0"/>
+        <v>44440</v>
+      </c>
+      <c r="B335" s="20"/>
+      <c r="C335" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D335" s="39"/>
+      <c r="E335" s="9"/>
+      <c r="F335" s="20"/>
+      <c r="G335" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H335" s="39"/>
+      <c r="I335" s="9"/>
+      <c r="J335" s="11"/>
+      <c r="K335" s="20"/>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A336" s="60">
+        <f t="shared" si="0"/>
+        <v>44470</v>
+      </c>
+      <c r="B336" s="20"/>
+      <c r="C336" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D336" s="39"/>
+      <c r="E336" s="9"/>
+      <c r="F336" s="20"/>
+      <c r="G336" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H336" s="39"/>
+      <c r="I336" s="9"/>
+      <c r="J336" s="11"/>
+      <c r="K336" s="20"/>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A337" s="60">
+        <f t="shared" si="0"/>
+        <v>44501</v>
+      </c>
+      <c r="B337" s="20"/>
+      <c r="C337" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D337" s="39"/>
+      <c r="E337" s="9"/>
+      <c r="F337" s="20"/>
+      <c r="G337" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H337" s="39"/>
+      <c r="I337" s="9"/>
+      <c r="J337" s="11"/>
+      <c r="K337" s="20"/>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A338" s="60">
+        <f t="shared" si="0"/>
+        <v>44531</v>
+      </c>
+      <c r="B338" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C338" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D338" s="39">
+        <v>5</v>
+      </c>
+      <c r="E338" s="9"/>
+      <c r="F338" s="20"/>
+      <c r="G338" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H338" s="39"/>
+      <c r="I338" s="9"/>
+      <c r="J338" s="11"/>
+      <c r="K338" s="20"/>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A339" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B339" s="20"/>
+      <c r="C339" s="13"/>
+      <c r="D339" s="39"/>
+      <c r="E339" s="9"/>
+      <c r="F339" s="20"/>
+      <c r="G339" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H339" s="39"/>
+      <c r="I339" s="9"/>
+      <c r="J339" s="11"/>
+      <c r="K339" s="20"/>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A340" s="60">
+        <f>EDATE(A338,1)</f>
+        <v>44562</v>
+      </c>
+      <c r="B340" s="20"/>
+      <c r="C340" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D340" s="39"/>
+      <c r="E340" s="9"/>
+      <c r="F340" s="20"/>
+      <c r="G340" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H340" s="39"/>
+      <c r="I340" s="9"/>
+      <c r="J340" s="11"/>
+      <c r="K340" s="20"/>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A341" s="60">
+        <f t="shared" si="0"/>
+        <v>44593</v>
+      </c>
+      <c r="B341" s="20"/>
+      <c r="C341" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D341" s="39"/>
+      <c r="E341" s="9"/>
+      <c r="F341" s="20"/>
+      <c r="G341" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H341" s="39"/>
+      <c r="I341" s="9"/>
+      <c r="J341" s="11"/>
+      <c r="K341" s="20"/>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A342" s="60">
+        <f t="shared" si="0"/>
+        <v>44621</v>
+      </c>
+      <c r="B342" s="20"/>
+      <c r="C342" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D342" s="39"/>
+      <c r="E342" s="9"/>
+      <c r="F342" s="20"/>
+      <c r="G342" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H342" s="39"/>
+      <c r="I342" s="9"/>
+      <c r="J342" s="11"/>
+      <c r="K342" s="20"/>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A343" s="60">
+        <f t="shared" si="0"/>
+        <v>44652</v>
+      </c>
+      <c r="B343" s="20"/>
+      <c r="C343" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D343" s="39"/>
+      <c r="E343" s="9"/>
+      <c r="F343" s="20"/>
+      <c r="G343" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H343" s="39"/>
+      <c r="I343" s="9"/>
+      <c r="J343" s="11"/>
+      <c r="K343" s="20"/>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A344" s="60">
+        <f t="shared" si="0"/>
+        <v>44682</v>
+      </c>
+      <c r="B344" s="20"/>
+      <c r="C344" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D344" s="39"/>
+      <c r="E344" s="9"/>
+      <c r="F344" s="20"/>
+      <c r="G344" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H344" s="39"/>
+      <c r="I344" s="9"/>
+      <c r="J344" s="11"/>
+      <c r="K344" s="20"/>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A345" s="60">
+        <f t="shared" si="0"/>
+        <v>44713</v>
+      </c>
+      <c r="B345" s="20"/>
+      <c r="C345" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D345" s="39"/>
+      <c r="E345" s="9"/>
+      <c r="F345" s="20"/>
+      <c r="G345" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H345" s="39"/>
+      <c r="I345" s="9"/>
+      <c r="J345" s="11"/>
+      <c r="K345" s="20"/>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A346" s="60">
+        <f t="shared" si="0"/>
+        <v>44743</v>
+      </c>
+      <c r="B346" s="20"/>
+      <c r="C346" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D346" s="39"/>
+      <c r="E346" s="9"/>
+      <c r="F346" s="20"/>
+      <c r="G346" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H346" s="39"/>
+      <c r="I346" s="9"/>
+      <c r="J346" s="11"/>
+      <c r="K346" s="20"/>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A347" s="60">
+        <f t="shared" si="0"/>
+        <v>44774</v>
+      </c>
+      <c r="B347" s="20"/>
+      <c r="C347" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D347" s="39"/>
+      <c r="E347" s="9"/>
+      <c r="F347" s="20"/>
+      <c r="G347" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H347" s="39"/>
+      <c r="I347" s="9"/>
+      <c r="J347" s="11"/>
+      <c r="K347" s="20"/>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A348" s="60">
+        <f t="shared" si="0"/>
+        <v>44805</v>
+      </c>
+      <c r="B348" s="20"/>
+      <c r="C348" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D348" s="39"/>
+      <c r="E348" s="9"/>
+      <c r="F348" s="20"/>
+      <c r="G348" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H348" s="39"/>
+      <c r="I348" s="9"/>
+      <c r="J348" s="11"/>
+      <c r="K348" s="20"/>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A349" s="60">
+        <f t="shared" si="0"/>
+        <v>44835</v>
+      </c>
+      <c r="B349" s="20"/>
+      <c r="C349" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D349" s="39"/>
+      <c r="E349" s="9"/>
+      <c r="F349" s="20"/>
+      <c r="G349" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H349" s="39"/>
+      <c r="I349" s="9"/>
+      <c r="J349" s="11"/>
+      <c r="K349" s="20"/>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A350" s="60">
+        <f t="shared" si="0"/>
+        <v>44866</v>
+      </c>
+      <c r="B350" s="20"/>
+      <c r="C350" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D350" s="39"/>
+      <c r="E350" s="9"/>
+      <c r="F350" s="20"/>
+      <c r="G350" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H350" s="39"/>
+      <c r="I350" s="9"/>
+      <c r="J350" s="11"/>
+      <c r="K350" s="20"/>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A351" s="60">
+        <f t="shared" si="0"/>
+        <v>44896</v>
+      </c>
+      <c r="B351" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C351" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D351" s="39">
+        <v>5</v>
+      </c>
+      <c r="E351" s="9"/>
+      <c r="F351" s="20"/>
+      <c r="G351" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H351" s="39"/>
+      <c r="I351" s="9"/>
+      <c r="J351" s="11"/>
+      <c r="K351" s="20"/>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A352" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B352" s="20"/>
+      <c r="C352" s="13"/>
+      <c r="D352" s="39"/>
+      <c r="E352" s="9"/>
+      <c r="F352" s="20"/>
+      <c r="G352" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H352" s="39"/>
+      <c r="I352" s="9"/>
+      <c r="J352" s="11"/>
+      <c r="K352" s="20"/>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A353" s="60">
+        <f>EDATE(A351,1)</f>
+        <v>44927</v>
+      </c>
+      <c r="B353" s="20"/>
+      <c r="C353" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D353" s="39"/>
+      <c r="E353" s="9"/>
+      <c r="F353" s="20"/>
+      <c r="G353" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H353" s="39"/>
+      <c r="I353" s="9"/>
+      <c r="J353" s="11"/>
+      <c r="K353" s="20"/>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A354" s="60">
+        <f t="shared" si="0"/>
+        <v>44958</v>
+      </c>
+      <c r="B354" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C354" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D354" s="39"/>
+      <c r="E354" s="9"/>
+      <c r="F354" s="20"/>
+      <c r="G354" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H354" s="39">
+        <v>15</v>
+      </c>
+      <c r="I354" s="9"/>
+      <c r="J354" s="11"/>
+      <c r="K354" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A355" s="60">
+        <f t="shared" si="0"/>
+        <v>44986</v>
+      </c>
+      <c r="B355" s="20"/>
+      <c r="C355" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D355" s="39"/>
+      <c r="E355" s="9"/>
+      <c r="F355" s="20"/>
+      <c r="G355" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H355" s="39"/>
+      <c r="I355" s="9"/>
+      <c r="J355" s="11"/>
+      <c r="K355" s="20"/>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A356" s="60">
+        <f t="shared" si="0"/>
+        <v>45017</v>
+      </c>
+      <c r="B356" s="20"/>
+      <c r="C356" s="13"/>
+      <c r="D356" s="39"/>
+      <c r="E356" s="9"/>
+      <c r="F356" s="20"/>
+      <c r="G356" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H356" s="39"/>
+      <c r="I356" s="9"/>
+      <c r="J356" s="11"/>
+      <c r="K356" s="20"/>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A357" s="60">
+        <f t="shared" si="0"/>
+        <v>45047</v>
+      </c>
+      <c r="B357" s="20"/>
+      <c r="C357" s="13"/>
+      <c r="D357" s="39"/>
+      <c r="E357" s="9"/>
+      <c r="F357" s="20"/>
+      <c r="G357" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H357" s="39"/>
+      <c r="I357" s="9"/>
+      <c r="J357" s="11"/>
+      <c r="K357" s="20"/>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A358" s="60">
+        <f t="shared" si="0"/>
+        <v>45078</v>
+      </c>
+      <c r="B358" s="20"/>
+      <c r="C358" s="13"/>
+      <c r="D358" s="39"/>
+      <c r="E358" s="9"/>
+      <c r="F358" s="20"/>
+      <c r="G358" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H358" s="39"/>
+      <c r="I358" s="9"/>
+      <c r="J358" s="11"/>
+      <c r="K358" s="20"/>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A359" s="60">
+        <f t="shared" si="0"/>
+        <v>45108</v>
+      </c>
+      <c r="B359" s="20"/>
+      <c r="C359" s="13"/>
+      <c r="D359" s="39"/>
+      <c r="E359" s="9"/>
+      <c r="F359" s="20"/>
+      <c r="G359" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H359" s="39"/>
+      <c r="I359" s="9"/>
+      <c r="J359" s="11"/>
+      <c r="K359" s="20"/>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A360" s="60"/>
+      <c r="B360" s="20"/>
+      <c r="C360" s="13"/>
+      <c r="D360" s="39"/>
+      <c r="E360" s="9"/>
+      <c r="F360" s="20"/>
+      <c r="G360" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H360" s="39"/>
+      <c r="I360" s="9"/>
+      <c r="J360" s="11"/>
+      <c r="K360" s="20"/>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A361" s="60"/>
+      <c r="B361" s="20"/>
+      <c r="C361" s="13"/>
+      <c r="D361" s="39"/>
+      <c r="E361" s="9"/>
+      <c r="F361" s="20"/>
+      <c r="G361" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H361" s="39"/>
+      <c r="I361" s="9"/>
+      <c r="J361" s="11"/>
+      <c r="K361" s="20"/>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A362" s="60"/>
+      <c r="B362" s="20"/>
+      <c r="C362" s="13"/>
+      <c r="D362" s="39"/>
+      <c r="E362" s="9"/>
+      <c r="F362" s="20"/>
+      <c r="G362" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H362" s="39"/>
+      <c r="I362" s="9"/>
+      <c r="J362" s="11"/>
+      <c r="K362" s="20"/>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A363" s="60"/>
+      <c r="B363" s="20"/>
+      <c r="C363" s="13"/>
+      <c r="D363" s="39"/>
+      <c r="E363" s="9"/>
+      <c r="F363" s="20"/>
+      <c r="G363" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H363" s="39"/>
+      <c r="I363" s="9"/>
+      <c r="J363" s="11"/>
+      <c r="K363" s="20"/>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A364" s="60"/>
+      <c r="B364" s="20"/>
+      <c r="C364" s="13"/>
+      <c r="D364" s="39"/>
+      <c r="E364" s="9"/>
+      <c r="F364" s="20"/>
+      <c r="G364" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H364" s="39"/>
+      <c r="I364" s="9"/>
+      <c r="J364" s="11"/>
+      <c r="K364" s="20"/>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A365" s="60"/>
+      <c r="B365" s="20"/>
+      <c r="C365" s="13"/>
+      <c r="D365" s="39"/>
+      <c r="E365" s="9"/>
+      <c r="F365" s="20"/>
+      <c r="G365" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H365" s="39"/>
+      <c r="I365" s="9"/>
+      <c r="J365" s="11"/>
+      <c r="K365" s="20"/>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A366" s="60"/>
+      <c r="B366" s="20"/>
+      <c r="C366" s="13"/>
+      <c r="D366" s="39"/>
+      <c r="E366" s="9"/>
+      <c r="F366" s="20"/>
+      <c r="G366" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H366" s="39"/>
+      <c r="I366" s="9"/>
+      <c r="J366" s="11"/>
+      <c r="K366" s="20"/>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A367" s="60"/>
+      <c r="B367" s="20"/>
+      <c r="C367" s="13"/>
+      <c r="D367" s="39"/>
+      <c r="E367" s="9"/>
+      <c r="F367" s="20"/>
+      <c r="G367" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H367" s="39"/>
+      <c r="I367" s="9"/>
+      <c r="J367" s="11"/>
+      <c r="K367" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/OJT/NEW DONE/ERNI, RANDY.xlsx
+++ b/REGULAR/OJT/NEW DONE/ERNI, RANDY.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="100">
   <si>
     <t>PERIOD</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>2/20-3/10/2023</t>
+  </si>
+  <si>
+    <t>6/5-9/2023</t>
   </si>
 </sst>
 </file>
@@ -714,6 +717,9 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -749,9 +755,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1201,7 +1204,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1244,7 +1247,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1308,7 +1311,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1368,7 +1371,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1434,7 +1437,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1497,7 +1500,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1595,7 +1598,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1654,7 +1657,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1719,7 +1722,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1762,7 +1765,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1837,7 +1840,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2023,7 +2026,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,7 +2092,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2147,7 +2150,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2213,7 +2216,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2269,7 +2272,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2347,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2390,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2453,7 +2456,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2509,7 +2512,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2607,7 +2610,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2670,7 +2673,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3119,7 +3122,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A345" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C5"/>
-      <selection pane="bottomLeft" activeCell="H355" sqref="H355"/>
+      <selection pane="bottomLeft" activeCell="D358" sqref="D358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3141,58 +3144,58 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3218,18 +3221,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3276,7 +3279,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>245.83299999999997</v>
+        <v>240.83299999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -9552,7 +9555,7 @@
       <c r="K313" s="20"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A314" s="60">
+      <c r="A314" s="48">
         <f>EDATE(A312,1)</f>
         <v>43831</v>
       </c>
@@ -9573,7 +9576,7 @@
       <c r="K314" s="20"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A315" s="60">
+      <c r="A315" s="48">
         <f t="shared" ref="A315:A359" si="0">EDATE(A314,1)</f>
         <v>43862</v>
       </c>
@@ -9594,7 +9597,7 @@
       <c r="K315" s="20"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A316" s="60">
+      <c r="A316" s="48">
         <f t="shared" si="0"/>
         <v>43891</v>
       </c>
@@ -9615,7 +9618,7 @@
       <c r="K316" s="20"/>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A317" s="60">
+      <c r="A317" s="48">
         <f t="shared" si="0"/>
         <v>43922</v>
       </c>
@@ -9636,7 +9639,7 @@
       <c r="K317" s="20"/>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A318" s="60">
+      <c r="A318" s="48">
         <f t="shared" si="0"/>
         <v>43952</v>
       </c>
@@ -9657,7 +9660,7 @@
       <c r="K318" s="20"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" s="60">
+      <c r="A319" s="48">
         <f t="shared" si="0"/>
         <v>43983</v>
       </c>
@@ -9678,7 +9681,7 @@
       <c r="K319" s="20"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A320" s="60">
+      <c r="A320" s="48">
         <f t="shared" si="0"/>
         <v>44013</v>
       </c>
@@ -9699,7 +9702,7 @@
       <c r="K320" s="20"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A321" s="60">
+      <c r="A321" s="48">
         <f t="shared" si="0"/>
         <v>44044</v>
       </c>
@@ -9720,7 +9723,7 @@
       <c r="K321" s="20"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A322" s="60">
+      <c r="A322" s="48">
         <f t="shared" si="0"/>
         <v>44075</v>
       </c>
@@ -9741,7 +9744,7 @@
       <c r="K322" s="20"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A323" s="60">
+      <c r="A323" s="48">
         <f t="shared" si="0"/>
         <v>44105</v>
       </c>
@@ -9762,7 +9765,7 @@
       <c r="K323" s="20"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A324" s="60">
+      <c r="A324" s="48">
         <f t="shared" si="0"/>
         <v>44136</v>
       </c>
@@ -9783,7 +9786,7 @@
       <c r="K324" s="20"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A325" s="60">
+      <c r="A325" s="48">
         <f t="shared" si="0"/>
         <v>44166</v>
       </c>
@@ -9826,7 +9829,7 @@
       <c r="K326" s="20"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A327" s="60">
+      <c r="A327" s="48">
         <f>EDATE(A325,1)</f>
         <v>44197</v>
       </c>
@@ -9847,7 +9850,7 @@
       <c r="K327" s="20"/>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A328" s="60">
+      <c r="A328" s="48">
         <f t="shared" si="0"/>
         <v>44228</v>
       </c>
@@ -9868,7 +9871,7 @@
       <c r="K328" s="20"/>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A329" s="60">
+      <c r="A329" s="48">
         <f t="shared" si="0"/>
         <v>44256</v>
       </c>
@@ -9889,7 +9892,7 @@
       <c r="K329" s="20"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A330" s="60">
+      <c r="A330" s="48">
         <f t="shared" si="0"/>
         <v>44287</v>
       </c>
@@ -9910,7 +9913,7 @@
       <c r="K330" s="20"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A331" s="60">
+      <c r="A331" s="48">
         <f t="shared" si="0"/>
         <v>44317</v>
       </c>
@@ -9931,7 +9934,7 @@
       <c r="K331" s="20"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A332" s="60">
+      <c r="A332" s="48">
         <f t="shared" si="0"/>
         <v>44348</v>
       </c>
@@ -9952,7 +9955,7 @@
       <c r="K332" s="20"/>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A333" s="60">
+      <c r="A333" s="48">
         <f t="shared" si="0"/>
         <v>44378</v>
       </c>
@@ -9973,7 +9976,7 @@
       <c r="K333" s="20"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A334" s="60">
+      <c r="A334" s="48">
         <f t="shared" si="0"/>
         <v>44409</v>
       </c>
@@ -9994,7 +9997,7 @@
       <c r="K334" s="20"/>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A335" s="60">
+      <c r="A335" s="48">
         <f t="shared" si="0"/>
         <v>44440</v>
       </c>
@@ -10015,7 +10018,7 @@
       <c r="K335" s="20"/>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A336" s="60">
+      <c r="A336" s="48">
         <f t="shared" si="0"/>
         <v>44470</v>
       </c>
@@ -10036,7 +10039,7 @@
       <c r="K336" s="20"/>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A337" s="60">
+      <c r="A337" s="48">
         <f t="shared" si="0"/>
         <v>44501</v>
       </c>
@@ -10057,7 +10060,7 @@
       <c r="K337" s="20"/>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A338" s="60">
+      <c r="A338" s="48">
         <f t="shared" si="0"/>
         <v>44531</v>
       </c>
@@ -10100,7 +10103,7 @@
       <c r="K339" s="20"/>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A340" s="60">
+      <c r="A340" s="48">
         <f>EDATE(A338,1)</f>
         <v>44562</v>
       </c>
@@ -10121,7 +10124,7 @@
       <c r="K340" s="20"/>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A341" s="60">
+      <c r="A341" s="48">
         <f t="shared" si="0"/>
         <v>44593</v>
       </c>
@@ -10142,7 +10145,7 @@
       <c r="K341" s="20"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A342" s="60">
+      <c r="A342" s="48">
         <f t="shared" si="0"/>
         <v>44621</v>
       </c>
@@ -10163,7 +10166,7 @@
       <c r="K342" s="20"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A343" s="60">
+      <c r="A343" s="48">
         <f t="shared" si="0"/>
         <v>44652</v>
       </c>
@@ -10184,7 +10187,7 @@
       <c r="K343" s="20"/>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A344" s="60">
+      <c r="A344" s="48">
         <f t="shared" si="0"/>
         <v>44682</v>
       </c>
@@ -10205,7 +10208,7 @@
       <c r="K344" s="20"/>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A345" s="60">
+      <c r="A345" s="48">
         <f t="shared" si="0"/>
         <v>44713</v>
       </c>
@@ -10226,7 +10229,7 @@
       <c r="K345" s="20"/>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A346" s="60">
+      <c r="A346" s="48">
         <f t="shared" si="0"/>
         <v>44743</v>
       </c>
@@ -10247,7 +10250,7 @@
       <c r="K346" s="20"/>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A347" s="60">
+      <c r="A347" s="48">
         <f t="shared" si="0"/>
         <v>44774</v>
       </c>
@@ -10268,7 +10271,7 @@
       <c r="K347" s="20"/>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A348" s="60">
+      <c r="A348" s="48">
         <f t="shared" si="0"/>
         <v>44805</v>
       </c>
@@ -10289,7 +10292,7 @@
       <c r="K348" s="20"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A349" s="60">
+      <c r="A349" s="48">
         <f t="shared" si="0"/>
         <v>44835</v>
       </c>
@@ -10310,7 +10313,7 @@
       <c r="K349" s="20"/>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A350" s="60">
+      <c r="A350" s="48">
         <f t="shared" si="0"/>
         <v>44866</v>
       </c>
@@ -10331,7 +10334,7 @@
       <c r="K350" s="20"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A351" s="60">
+      <c r="A351" s="48">
         <f t="shared" si="0"/>
         <v>44896</v>
       </c>
@@ -10374,7 +10377,7 @@
       <c r="K352" s="20"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A353" s="60">
+      <c r="A353" s="48">
         <f>EDATE(A351,1)</f>
         <v>44927</v>
       </c>
@@ -10395,7 +10398,7 @@
       <c r="K353" s="20"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A354" s="60">
+      <c r="A354" s="48">
         <f t="shared" si="0"/>
         <v>44958</v>
       </c>
@@ -10422,7 +10425,7 @@
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A355" s="60">
+      <c r="A355" s="48">
         <f t="shared" si="0"/>
         <v>44986</v>
       </c>
@@ -10443,7 +10446,7 @@
       <c r="K355" s="20"/>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A356" s="60">
+      <c r="A356" s="48">
         <f t="shared" si="0"/>
         <v>45017</v>
       </c>
@@ -10462,7 +10465,7 @@
       <c r="K356" s="20"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A357" s="60">
+      <c r="A357" s="48">
         <f t="shared" si="0"/>
         <v>45047</v>
       </c>
@@ -10481,13 +10484,17 @@
       <c r="K357" s="20"/>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A358" s="60">
+      <c r="A358" s="48">
         <f t="shared" si="0"/>
         <v>45078</v>
       </c>
-      <c r="B358" s="20"/>
+      <c r="B358" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C358" s="13"/>
-      <c r="D358" s="39"/>
+      <c r="D358" s="39">
+        <v>5</v>
+      </c>
       <c r="E358" s="9"/>
       <c r="F358" s="20"/>
       <c r="G358" s="13" t="str">
@@ -10497,10 +10504,12 @@
       <c r="H358" s="39"/>
       <c r="I358" s="9"/>
       <c r="J358" s="11"/>
-      <c r="K358" s="20"/>
+      <c r="K358" s="20" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A359" s="60">
+      <c r="A359" s="48">
         <f t="shared" si="0"/>
         <v>45108</v>
       </c>
@@ -10519,7 +10528,7 @@
       <c r="K359" s="20"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A360" s="60"/>
+      <c r="A360" s="48"/>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
       <c r="D360" s="39"/>
@@ -10535,7 +10544,7 @@
       <c r="K360" s="20"/>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A361" s="60"/>
+      <c r="A361" s="48"/>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
       <c r="D361" s="39"/>
@@ -10551,7 +10560,7 @@
       <c r="K361" s="20"/>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A362" s="60"/>
+      <c r="A362" s="48"/>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
       <c r="D362" s="39"/>
@@ -10567,7 +10576,7 @@
       <c r="K362" s="20"/>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A363" s="60"/>
+      <c r="A363" s="48"/>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
       <c r="D363" s="39"/>
@@ -10583,7 +10592,7 @@
       <c r="K363" s="20"/>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A364" s="60"/>
+      <c r="A364" s="48"/>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
       <c r="D364" s="39"/>
@@ -10599,7 +10608,7 @@
       <c r="K364" s="20"/>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A365" s="60"/>
+      <c r="A365" s="48"/>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
       <c r="D365" s="39"/>
@@ -10615,7 +10624,7 @@
       <c r="K365" s="20"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A366" s="60"/>
+      <c r="A366" s="48"/>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
       <c r="D366" s="39"/>
@@ -10631,7 +10640,7 @@
       <c r="K366" s="20"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A367" s="60"/>
+      <c r="A367" s="48"/>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
       <c r="D367" s="39"/>
@@ -10710,17 +10719,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -10795,12 +10804,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
